--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605191.7706933392</v>
+        <v>689257.6331314583</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13474322.31687168</v>
+        <v>13445953.68497684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6462486.601016349</v>
+        <v>8058131.297294513</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9336595.39648357</v>
+        <v>8573200.372271806</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.72533991708939</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>15.40229248514506</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>62.09304949854808</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.0721477169158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>150.1450882057765</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863186</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,22 +983,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>10.14175397954321</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>87.93270968653135</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>125.9673299442111</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>250.6229825764704</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1215,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>86.97068393466043</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.0138334144184</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>275.5422451161529</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>83.56741318567423</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.57983363107962</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>61.36917500886934</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>242.852843761304</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.9824281355622</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>251.2285928046441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>74.32262784155945</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>126.5388824951713</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933833</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>142.9575056211061</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>47.38664856089963</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.66139061606894</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>256.1157837280782</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>105.0023863360935</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>188.6059442291521</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>149.3991884271815</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>84.54451503477998</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>28.93382893561936</v>
+        <v>205.1127822067366</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>39.49952882990186</v>
+        <v>88.58584547962742</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.32117841962576</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.32727861849585</v>
+        <v>37.67709528776653</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>87.87460184950385</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>258.865916727017</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>81.46084344268519</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946407</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>284.4297735342305</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>51.90212653415742</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.30878201733218</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>21.83291915277492</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>54.45803047044427</v>
       </c>
       <c r="H43" t="n">
-        <v>129.5021431545638</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>318.5653654366736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>188.219639431212</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>277.8312030514732</v>
+        <v>87.62154955555337</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1256.740097465976</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C2" t="n">
-        <v>1256.740097465976</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D2" t="n">
-        <v>1256.740097465976</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E2" t="n">
-        <v>1256.740097465976</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F2" t="n">
-        <v>845.7541926763687</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G2" t="n">
-        <v>429.7231473797759</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711874</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>2107.121099715674</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T2" t="n">
-        <v>1896.947101867589</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U2" t="n">
-        <v>1643.339937530098</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V2" t="n">
-        <v>1643.339937530098</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.339937530098</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="X2" t="n">
-        <v>1643.339937530098</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1643.339937530098</v>
+        <v>204.4218319897906</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5261380428188</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0731087616919</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1386991004406</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9012440949851</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3666861218701</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>175.490692336986</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>80.03532540581918</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>1595.273638474382</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>1400.563316948358</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="U3" t="n">
-        <v>1172.461727081622</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="V3" t="n">
-        <v>1172.461727081622</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="W3" t="n">
-        <v>1172.461727081622</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.461727081622</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.741475062887</v>
+        <v>30.55991817042184</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.305379466</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G4" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H4" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="I4" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="J4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.9538442962397</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>21.03371160678523</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>80.8121315905899</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>672.2420264262265</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>672.2420264262265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>672.2420264262265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>672.2420264262265</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.60582160917</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>482.8222414097414</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>482.8222414097414</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>575.6493193841534</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>426.7149097229021</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>416.4707137839696</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>750.1023486652804</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>27.03967056230184</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>42.98993985170731</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>66.41847329396354</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133545</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V7" t="n">
-        <v>155.3330353074676</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>665.4862413335254</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>296.5237243931137</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>1052.086081397647</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>377.0596808246756</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1678.37787164191</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1450.276281775175</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1215.124173543432</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>960.8868168152303</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>753.0353166096975</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>545.2750178447436</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812242</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>403.4802848832069</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.6877057396768</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038043</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097632</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490881</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E11" t="n">
-        <v>1095.404020490881</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F11" t="n">
-        <v>684.4181157012738</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>2340.332512980376</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>1966.866754719296</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>1576.727422743484</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,13 +5135,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>770.7703664058492</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>622.8572728234561</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>475.9673253255457</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>308.2644887002647</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>162.0473019181225</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025384</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720644</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>128.501182097708</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308157</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367746</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760995</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.384423162751</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F14" t="n">
-        <v>651.3985183731436</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,10 +5290,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348091</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372279</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5385,22 +5387,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>770.7703664058491</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>622.857272823456</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>475.9673253255456</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>308.2644887002646</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
@@ -5434,52 +5436,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720644</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W16" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X16" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2051.278283189674</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450754</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X17" t="n">
-        <v>2051.278283189674</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>2051.278283189674</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>547.5526568147715</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C19" t="n">
-        <v>378.6164738868646</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450112</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T19" t="n">
-        <v>729.2011216450112</v>
+        <v>3277.740520032505</v>
       </c>
       <c r="U19" t="n">
-        <v>729.2011216450112</v>
+        <v>2988.637653158148</v>
       </c>
       <c r="V19" t="n">
-        <v>729.2011216450112</v>
+        <v>2988.637653158148</v>
       </c>
       <c r="W19" t="n">
-        <v>729.2011216450112</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="X19" t="n">
-        <v>729.2011216450112</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y19" t="n">
-        <v>729.2011216450112</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="20">
@@ -5756,7 +5758,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.7614736385282</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C22" t="n">
-        <v>263.7614736385282</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>113.6448342261924</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
         <v>66.51211643218342</v>
@@ -5944,16 +5946,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>666.202517612298</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="X22" t="n">
-        <v>666.202517612298</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y22" t="n">
-        <v>445.4099384687679</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>558.3633855315322</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>172.575132933288</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>172.575132933288</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339056</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2725.565615186207</v>
+        <v>2622.139203361737</v>
       </c>
       <c r="C25" t="n">
-        <v>2556.6294322583</v>
+        <v>2622.139203361737</v>
       </c>
       <c r="D25" t="n">
-        <v>2556.6294322583</v>
+        <v>2622.139203361737</v>
       </c>
       <c r="E25" t="n">
-        <v>2556.6294322583</v>
+        <v>2622.139203361737</v>
       </c>
       <c r="F25" t="n">
-        <v>2556.6294322583</v>
+        <v>2622.139203361737</v>
       </c>
       <c r="G25" t="n">
-        <v>2556.6294322583</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H25" t="n">
-        <v>2556.6294322583</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I25" t="n">
         <v>2471.230932223169</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K25" t="n">
         <v>2581.364540028279</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M25" t="n">
         <v>2904.506865249834</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O25" t="n">
         <v>3213.734051497871</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>3235.775364366698</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W25" t="n">
-        <v>2946.358194329737</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="X25" t="n">
-        <v>2946.358194329737</v>
+        <v>2842.931782505267</v>
       </c>
       <c r="Y25" t="n">
-        <v>2725.565615186207</v>
+        <v>2622.139203361737</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1238.038871968308</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C26" t="n">
-        <v>869.0763550278964</v>
+        <v>1843.809051073442</v>
       </c>
       <c r="D26" t="n">
-        <v>510.8106564211459</v>
+        <v>1485.543352466692</v>
       </c>
       <c r="E26" t="n">
-        <v>510.8106564211459</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F26" t="n">
-        <v>510.8106564211459</v>
+        <v>688.7691950788401</v>
       </c>
       <c r="G26" t="n">
-        <v>95.73820626614236</v>
+        <v>273.6967449238365</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6224,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6257,19 +6259,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008242</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.63871203243</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2754.672310156564</v>
+        <v>2560.711584222793</v>
       </c>
       <c r="C28" t="n">
-        <v>2754.672310156564</v>
+        <v>2560.711584222793</v>
       </c>
       <c r="D28" t="n">
-        <v>2754.672310156564</v>
+        <v>2560.711584222793</v>
       </c>
       <c r="E28" t="n">
-        <v>2754.672310156564</v>
+        <v>2560.711584222793</v>
       </c>
       <c r="F28" t="n">
-        <v>2754.672310156564</v>
+        <v>2560.711584222793</v>
       </c>
       <c r="G28" t="n">
-        <v>2714.773796186966</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H28" t="n">
-        <v>2568.556609404824</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I28" t="n">
         <v>2471.230932223169</v>
@@ -6406,28 +6408,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V28" t="n">
-        <v>3044.089480193524</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W28" t="n">
-        <v>2754.672310156564</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X28" t="n">
-        <v>2754.672310156564</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="Y28" t="n">
-        <v>2754.672310156564</v>
+        <v>2560.711584222793</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2303.170539913434</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3285.887459569145</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3079.909711953368</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3079.909711953368</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3079.909711953368</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>3079.909711953368</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>3079.909711953368</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2689.770379977556</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6531,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>836.718037516674</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="S31" t="n">
-        <v>645.0321533435005</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="T31" t="n">
-        <v>645.0321533435005</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="U31" t="n">
-        <v>355.929286469144</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="V31" t="n">
-        <v>355.929286469144</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="W31" t="n">
-        <v>66.51211643218343</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218343</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218343</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1892.184635123826</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1523.222118183415</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1164.956419576664</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3236.843597518762</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2983.313120792599</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V32" t="n">
-        <v>2652.250233449028</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W32" t="n">
-        <v>2652.250233449028</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X32" t="n">
-        <v>2278.784475187948</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>2278.784475187948</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C34" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D34" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E34" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U34" t="n">
-        <v>659.406281851501</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V34" t="n">
-        <v>659.406281851501</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W34" t="n">
-        <v>659.406281851501</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X34" t="n">
-        <v>659.406281851501</v>
+        <v>2553.514612468307</v>
       </c>
       <c r="Y34" t="n">
-        <v>659.406281851501</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308158</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367746</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760996</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.384423162752</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F35" t="n">
-        <v>651.398518373144</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
         <v>364.0957168234162</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.140063348092</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.00073137228</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>646.6939999491682</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C37" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D37" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E37" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>868.4606153796421</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T37" t="n">
-        <v>646.6939999491682</v>
+        <v>3304.435457340374</v>
       </c>
       <c r="U37" t="n">
-        <v>646.6939999491682</v>
+        <v>3015.332590466018</v>
       </c>
       <c r="V37" t="n">
-        <v>646.6939999491682</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W37" t="n">
-        <v>646.6939999491682</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X37" t="n">
-        <v>646.6939999491682</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y37" t="n">
-        <v>646.6939999491682</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>3325.60582160917</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>3121.906610713899</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.8870058181849</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C40" t="n">
-        <v>920.8870058181849</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>3304.435457340374</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>3015.332590466018</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X40" t="n">
-        <v>920.8870058181849</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y40" t="n">
-        <v>920.8870058181849</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1594.601034732593</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1225.638517792182</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>867.3728191854311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3299.031294318936</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3093.053546703159</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="V41" t="n">
-        <v>3097.574620303721</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W41" t="n">
-        <v>2744.805965033606</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>2371.340206772526</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>1981.200874796715</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>610.2639694321828</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C43" t="n">
-        <v>610.2639694321828</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D43" t="n">
-        <v>610.2639694321828</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="E43" t="n">
-        <v>462.3508758497896</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="F43" t="n">
-        <v>462.3508758497896</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="G43" t="n">
-        <v>294.6480392245086</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7591,28 +7593,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X43" t="n">
-        <v>831.0565485757129</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y43" t="n">
-        <v>610.2639694321828</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1501.213961756483</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C44" t="n">
-        <v>1501.213961756483</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D44" t="n">
-        <v>1142.948263149732</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E44" t="n">
-        <v>1142.948263149732</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796416</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.953133796416</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y44" t="n">
-        <v>1887.813801820605</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>216.6287558445191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>640.249426978313</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V46" t="n">
-        <v>385.564938772426</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X46" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y46" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.59469128425553</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>70.08796879216104</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940402</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>151.1308911647223</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
-        <v>143.5896462787563</v>
+        <v>18.15710861098424</v>
       </c>
     </row>
     <row r="4">
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.85405337381949</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.51250563517902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>262.9527450242815</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921504</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22869,7 +22871,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>147.5033264758577</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22881,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>154.5643095410616</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>198.5902886500596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>256.7665117192695</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>104.0600590442126</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>105.7925343761033</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.81814676751888</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>35.45192755253842</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>135.3794805373005</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>265.6735555317388</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>1.772586778758466</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7684683149587</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>168.0688818921494</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>1.772586778758551</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>34.9832454009688</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>290.9502639294481</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222417</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>5.657967397106262</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23938,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>172.1623007152696</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.77257203050024</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24184,13 +24186,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>30.40721460851279</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>305.9193393173599</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24257,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>181.1251564493169</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>16.62661983184668</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>11.80790537505811</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24421,13 +24423,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24449,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>265.6739354517011</v>
+        <v>89.49498218058386</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24497,10 +24499,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>126.5262794291264</v>
+        <v>77.4399627794008</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24658,7 +24660,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.86658336855007</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.604874051551477</v>
+        <v>51.2550573822808</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>116.0433682901163</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>124.4562894637302</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>27.34592147859587</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094096</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>167.8579417260423</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>126.4919521192229</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>137.8668987972845</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>198.59028865006</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>198.59028865006</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>82.87897977084366</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>305.91933931736</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>111.567777788584</v>
       </c>
       <c r="H43" t="n">
-        <v>15.25287175975697</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>88.31068030503781</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>15.69833070840809</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26074,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>8.380635154139668</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647344.6645483939</v>
+        <v>432626.85125722</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.4434218738</v>
+        <v>422140.8718526021</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822602.4434218738</v>
+        <v>645633.2065222072</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.443421874</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258742.2706163646</v>
+        <v>171218.9988024767</v>
       </c>
       <c r="C2" t="n">
-        <v>329040.977368749</v>
+        <v>168223.0046868718</v>
       </c>
       <c r="D2" t="n">
-        <v>329040.9773687491</v>
+        <v>258253.2826088826</v>
       </c>
       <c r="E2" t="n">
         <v>329040.9773687493</v>
@@ -26326,34 +26328,34 @@
         <v>329040.9773687491</v>
       </c>
       <c r="G2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687491</v>
       </c>
       <c r="H2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="I2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="J2" t="n">
         <v>329040.9773687492</v>
       </c>
       <c r="K2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="L2" t="n">
+        <v>329040.9773687494</v>
+      </c>
+      <c r="M2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="L2" t="n">
-        <v>329040.9773687493</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="N2" t="n">
-        <v>329040.9773687493</v>
-      </c>
       <c r="O2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.9773687491</v>
+        <v>329040.9773687492</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230093</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>308422.1921421495</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487658</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.7457669101</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376602</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>74453.08759127813</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127032</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608622</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873.3099327288509</v>
+        <v>4717.154369100054</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061232</v>
+        <v>1721.160253495016</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061232</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061525</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161359</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161359</v>
+      </c>
+      <c r="D5" t="n">
         <v>85199.08185587224</v>
-      </c>
-      <c r="C5" t="n">
-        <v>107933.9405613933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26488,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831652.0064023298</v>
+        <v>-481840.8584990826</v>
       </c>
       <c r="C6" t="n">
-        <v>-87899.80232379992</v>
+        <v>109516.0440217632</v>
       </c>
       <c r="D6" t="n">
-        <v>220522.3898183497</v>
+        <v>-198888.6461210023</v>
       </c>
       <c r="E6" t="n">
-        <v>254149.9898183502</v>
+        <v>-21880.75594856023</v>
       </c>
       <c r="F6" t="n">
         <v>254149.9898183497</v>
@@ -26537,31 +26539,31 @@
         <v>254149.9898183497</v>
       </c>
       <c r="H6" t="n">
-        <v>254149.9898183499</v>
+        <v>254149.9898183498</v>
       </c>
       <c r="I6" t="n">
+        <v>254149.9898183498</v>
+      </c>
+      <c r="J6" t="n">
+        <v>205085.0450898051</v>
+      </c>
+      <c r="K6" t="n">
         <v>254149.9898183497</v>
       </c>
-      <c r="J6" t="n">
-        <v>112308.8640806895</v>
-      </c>
-      <c r="K6" t="n">
-        <v>179696.9022270718</v>
-      </c>
       <c r="L6" t="n">
-        <v>254149.9898183499</v>
+        <v>164406.6116870797</v>
       </c>
       <c r="M6" t="n">
+        <v>182058.6372022636</v>
+      </c>
+      <c r="N6" t="n">
         <v>254149.9898183498</v>
       </c>
-      <c r="N6" t="n">
-        <v>254149.9898183499</v>
-      </c>
       <c r="O6" t="n">
-        <v>254149.9898183499</v>
+        <v>254149.9898183498</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183497</v>
+        <v>254149.9898183498</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129048</v>
+      </c>
+      <c r="C3" t="n">
+        <v>548.4699409129048</v>
+      </c>
+      <c r="D3" t="n">
         <v>853.7106645376841</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663201</v>
+      </c>
+      <c r="C4" t="n">
+        <v>187.5255871663202</v>
+      </c>
+      <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
@@ -26808,28 +26810,28 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>305.2407236247793</v>
+      </c>
+      <c r="E3" t="n">
         <v>236.0660360556142</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.589369559843</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>354.5893695598434</v>
+      </c>
+      <c r="M4" t="n">
         <v>289.2864986761297</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.589369559843</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258711</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867496</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563592</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32245,7 +32247,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
         <v>738.1512123099059</v>
@@ -32555,13 +32557,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32795,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33509,7 +33511,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33892,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34223,7 +34225,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002927</v>
@@ -34381,7 +34383,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746414</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222709</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193738</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36443,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37157,7 +37159,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38029,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882182</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
